--- a/public/cohort/fileExcel/xlsxUIT/CKV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/CKV PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -257,13 +257,7 @@
     <t>OriÃ«ntatie + kunstbiografie</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Culturele Activiteit 1 - kunstdiscipline + dimensie(s)</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>Culturele Activiteit 2 - kunstdiscipline + dimensie(s)</t>
@@ -275,25 +269,19 @@
     <t>Onderzoek</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Reflectie + magazine</t>
   </si>
   <si>
-    <t>D</t>
+    <t>null</t>
   </si>
   <si>
-    <t>null</t>
+    <t>A</t>
   </si>
   <si>
     <t>Culturele Activiteit 4 - kunstdiscipline + dimensie(s)</t>
   </si>
   <si>
     <t>OriÃ«ntatie (CZP1) + Reflectie (CZP2) + magazine</t>
-  </si>
-  <si>
-    <t>A, D</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1298,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1318,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="27">
         <v>1</v>
@@ -1337,9 +1325,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1354,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" s="27">
         <v>1</v>
@@ -1373,9 +1359,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1390,7 +1374,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I8" s="27">
         <v>1</v>
@@ -1409,9 +1393,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1427,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I9" s="27">
         <v>1</v>
@@ -1446,9 +1428,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1456,7 +1436,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1464,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I10" s="27">
         <v>1</v>
@@ -1483,9 +1463,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>82</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -1501,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I11" s="27">
         <v>2</v>
@@ -1520,9 +1498,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32" t="s">
-        <v>88</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -2224,7 +2200,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2338,7 +2314,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2636,7 +2612,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -3090,7 +3066,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3204,7 +3180,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3707,7 +3683,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4060,7 +4036,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5015,7 +4991,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5831,7 +5807,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6647,7 +6623,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7386,9 +7362,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7403,7 +7377,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="27">
         <v>1</v>
@@ -7422,9 +7396,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7439,7 +7411,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I8" s="27">
         <v>1</v>
@@ -7458,9 +7430,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7476,7 +7446,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I9" s="27">
         <v>1</v>
@@ -7495,9 +7465,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7505,7 +7473,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7513,7 +7481,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I10" s="27">
         <v>1</v>
@@ -7532,9 +7500,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>82</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -7550,7 +7516,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I11" s="27">
         <v>2</v>
@@ -7569,9 +7535,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32" t="s">
-        <v>84</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -8387,7 +8351,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8685,7 +8649,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -9243,7 +9207,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633310185</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/CKV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/CKV PTA en onderwijsprogramma.xlsx
@@ -254,7 +254,7 @@
     <t>H</t>
   </si>
   <si>
-    <t>OriÃ«ntatie + kunstbiografie</t>
+    <t>Oriëntatie + kunstbiografie</t>
   </si>
   <si>
     <t>Culturele Activiteit 1 - kunstdiscipline + dimensie(s)</t>
@@ -281,7 +281,7 @@
     <t>Culturele Activiteit 4 - kunstdiscipline + dimensie(s)</t>
   </si>
   <si>
-    <t>OriÃ«ntatie (CZP1) + Reflectie (CZP2) + magazine</t>
+    <t>Oriëntatie (CZP1) + Reflectie (CZP2) + magazine</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1300,9 @@
       <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>489</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1334,7 +1336,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>490</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -1368,7 +1372,9 @@
       <c r="B8" s="2">
         <v>148</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>491</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -1403,7 +1409,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>492</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -1436,9 +1444,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445717593</v>
+      </c>
+      <c r="D10" s="2">
+        <v>493</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -1473,7 +1483,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>494</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -1520,7 +1532,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>367</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1540,9 +1554,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1734,7 +1746,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>368</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1939,7 +1953,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>369</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2314,7 +2330,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2386,7 +2402,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>370</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2598,7 +2616,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>371</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2805,7 +2825,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>372</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3180,7 +3202,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3252,7 +3274,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>373</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3464,7 +3488,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>374</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3669,7 +3695,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>375</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -4036,7 +4064,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4991,7 +5019,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5807,7 +5835,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6623,7 +6651,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445706019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7337,7 +7365,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>483</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7371,7 +7401,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>484</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -7405,7 +7437,9 @@
       <c r="B8" s="2">
         <v>146</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>485</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -7440,7 +7474,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>486</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -7473,9 +7509,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445717593</v>
+      </c>
+      <c r="D10" s="2">
+        <v>487</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -7510,7 +7548,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>488</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -7557,7 +7597,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>363</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7577,9 +7619,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -7771,7 +7811,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>364</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8351,7 +8393,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8423,7 +8465,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>365</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8635,7 +8679,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>366</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -9207,7 +9253,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/CKV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/CKV PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,13 +252,25 @@
     <t>CKV</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>Oriëntatie + kunstbiografie</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>Culturele Activiteit 1 - kunstdiscipline + dimensie(s)</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>Culturele Activiteit 2 - kunstdiscipline + dimensie(s)</t>
@@ -269,19 +282,22 @@
     <t>Onderzoek</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>Reflectie + magazine</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>Culturele Activiteit 4 - kunstdiscipline + dimensie(s)</t>
   </si>
   <si>
     <t>Oriëntatie (CZP1) + Reflectie (CZP2) + magazine</t>
+  </si>
+  <si>
+    <t>A, D</t>
   </si>
 </sst>
 </file>
@@ -1210,12 +1226,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1237,25 +1253,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>CKV leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>8</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1297,35 +1309,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="2">
-        <v>489</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1333,35 +1335,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>490</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="27">
-        <v>1</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1369,35 +1361,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>148</v>
-      </c>
-      <c r="D8" s="2">
-        <v>491</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1407,34 +1389,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>492</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="27">
-        <v>1</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1444,34 +1418,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2">
-        <v>493</v>
-      </c>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>1</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1483,32 +1449,24 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>494</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="27">
-        <v>2</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -1527,17 +1485,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>367</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1552,7 +1508,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
+        <v>2024</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -1569,7 +1525,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>CKV leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1746,12 +1702,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>368</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1776,7 +1730,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>CKV leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1953,12 +1907,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>369</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2032,44 +1984,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2133,7 +2047,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2164,7 +2078,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>CKV leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>CKV leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2216,84 +2130,114 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="D6" s="2">
+        <v>489</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="31">
+        <v>1</v>
+      </c>
       <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>490</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="31">
+        <v>1</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>149</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="D8" s="2">
+        <v>491</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="31">
+        <v>1</v>
+      </c>
       <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -2301,28 +2245,38 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>492</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>1</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -2330,28 +2284,38 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2">
+        <v>493</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="31">
+        <v>1</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -2361,26 +2325,36 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>494</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="31">
+        <v>2</v>
+      </c>
       <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -2397,17 +2371,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2422,7 +2396,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -2439,7 +2413,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>CKV leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>CKV leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2617,11 +2591,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2631,9 +2605,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2648,7 +2620,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>CKV leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>CKV leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2826,11 +2798,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2963,6 +2935,878 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>CKV leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>149</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>370</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>CKV leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>371</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>CKV leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>372</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3088,7 +3932,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3202,7 +4046,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3711,7 +4555,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4064,7 +4908,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5019,7 +5863,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5835,7 +6679,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6459,12 +7303,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6486,6 +7330,873 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>CKV leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>145</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>361</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>CKV leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>362</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>CKV leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6651,7 +8362,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445706019</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7231,922 +8942,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>CKV leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>483</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31">
-        <v>1</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>484</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>1</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>1</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>146</v>
-      </c>
-      <c r="D8" s="2">
-        <v>485</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31">
-        <v>1</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>486</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>1</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>1</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2">
-        <v>487</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>1</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2">
-        <v>488</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="27">
-        <v>2</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31">
-        <v>2</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>363</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>CKV leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>364</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>CKV leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8196,7 +8991,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8227,7 +9022,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>CKV leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>CKV leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8279,84 +9074,114 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="D6" s="2">
+        <v>483</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="31">
+        <v>1</v>
+      </c>
       <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>484</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="31">
+        <v>1</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>147</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="D8" s="2">
+        <v>485</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="31">
+        <v>1</v>
+      </c>
       <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -8364,28 +9189,38 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>486</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>1</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -8393,28 +9228,38 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2">
+        <v>487</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="31">
+        <v>1</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -8424,26 +9269,36 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>488</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="31">
+        <v>2</v>
+      </c>
       <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -8460,17 +9315,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8485,7 +9340,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -8502,7 +9357,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>CKV leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>CKV leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8680,11 +9535,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8694,9 +9549,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -8711,7 +9564,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>CKV leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>CKV leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -8891,7 +9744,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9061,12 +9914,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9088,21 +9941,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>CKV leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9144,7 +10001,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9170,7 +10029,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9196,7 +10057,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>147</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9224,7 +10087,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9253,7 +10116,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9320,15 +10183,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>365</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9343,7 +10208,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9360,7 +10225,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>CKV leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9537,10 +10402,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>366</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9550,7 +10417,9 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
+      <c r="G26" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9565,7 +10434,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>CKV leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9745,7 +10614,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  CKV leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9819,6 +10688,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/CKV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/CKV PTA en onderwijsprogramma.xlsx
@@ -1592,7 +1592,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808877315</v>
+        <v>44341.376261574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2266,7 +2266,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808877315</v>
+        <v>44341.376261574</v>
       </c>
       <c r="D10" s="2">
         <v>487</v>
@@ -3404,7 +3404,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808877315</v>
+        <v>44341.376261574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4482,7 +4482,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808877315</v>
+        <v>44341.376261574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5562,7 +5562,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808877315</v>
+        <v>44341.376261574</v>
       </c>
       <c r="D10" s="2">
         <v>493</v>
@@ -6702,7 +6702,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808877315</v>
+        <v>44341.376261574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7782,7 +7782,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808877315</v>
+        <v>44341.376261574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8862,7 +8862,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/CKV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/CKV PTA en onderwijsprogramma.xlsx
@@ -825,19 +825,49 @@
     <t>H</t>
   </si>
   <si>
+    <t>Oriëntatie + kunstbiografie</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>startJaar</t>
+  </si>
+  <si>
+    <t>Culturele Activiteit 1 - kunstdiscipline + dimensie(s)</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>cid</t>
   </si>
   <si>
+    <t>Culturele Activiteit 2 - kunstdiscipline + dimensie(s)</t>
+  </si>
+  <si>
     <t>eindJaar</t>
+  </si>
+  <si>
+    <t>Culturele Activiteit 3 - kunstdiscipline + dimensie(s)</t>
   </si>
   <si>
     <t>vandaag</t>
   </si>
   <si>
+    <t>Onderzoek</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>huidigStartjaar</t>
+  </si>
+  <si>
+    <t>Reflectie + magazine</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>huidigSchooljaar</t>
@@ -850,36 +880,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>Oriëntatie + kunstbiografie</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Culturele Activiteit 1 - kunstdiscipline + dimensie(s)</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Culturele Activiteit 2 - kunstdiscipline + dimensie(s)</t>
-  </si>
-  <si>
-    <t>Culturele Activiteit 3 - kunstdiscipline + dimensie(s)</t>
-  </si>
-  <si>
-    <t>Onderzoek</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Reflectie + magazine</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>Culturele Activiteit 4 - kunstdiscipline + dimensie(s)</t>
@@ -2243,185 +2243,245 @@
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>730</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="27">
+        <v>1</v>
+      </c>
       <c r="O6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>731</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="27">
+        <v>1</v>
+      </c>
       <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>203</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>732</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>1</v>
+      </c>
       <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>733</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="23">
+        <v>1</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>1</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382268519</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629502315</v>
+      </c>
+      <c r="D10" s="2">
+        <v>734</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="27">
+        <v>1</v>
+      </c>
       <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>735</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="23"/>
       <c r="M11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="27">
+        <v>2</v>
+      </c>
       <c r="O11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2442,7 +2502,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2472,7 +2532,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2493,7 +2553,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3330,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I6" s="43">
         <v>1</v>
@@ -3350,13 +3410,13 @@
         <v>11</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -3370,7 +3430,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I7" s="43">
         <v>1</v>
@@ -3390,13 +3450,13 @@
         <v>11</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>146</v>
@@ -3410,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I8" s="43">
         <v>1</v>
@@ -3430,13 +3490,13 @@
         <v>11</v>
       </c>
       <c r="P8" s="52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -3451,7 +3511,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I9" s="43">
         <v>1</v>
@@ -3471,17 +3531,17 @@
         <v>11</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382268519</v>
+        <v>44342.629502315</v>
       </c>
       <c r="D10" s="2">
         <v>487</v>
@@ -3492,7 +3552,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I10" s="43">
         <v>1</v>
@@ -3512,13 +3572,13 @@
         <v>11</v>
       </c>
       <c r="P10" s="52" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3533,7 +3593,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I11" s="43">
         <v>2</v>
@@ -3553,13 +3613,13 @@
         <v>11</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3580,7 +3640,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3610,7 +3670,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3631,7 +3691,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4484,7 +4544,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -4514,7 +4574,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>147</v>
@@ -4544,7 +4604,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4575,11 +4635,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382268519</v>
+        <v>44342.629502315</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4606,7 +4666,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -4637,7 +4697,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -4658,7 +4718,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -4688,7 +4748,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -4709,7 +4769,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5535,187 +5595,247 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="D6" s="2">
+        <v>736</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="27">
+        <v>1</v>
+      </c>
       <c r="O6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>737</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="27">
+        <v>1</v>
+      </c>
       <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>204</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>738</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>1</v>
+      </c>
       <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>739</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="23">
+        <v>1</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>1</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382268519</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629502315</v>
+      </c>
+      <c r="D10" s="2">
+        <v>740</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="27">
+        <v>1</v>
+      </c>
       <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>741</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="23"/>
       <c r="M11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="27">
+        <v>2</v>
+      </c>
       <c r="O11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5736,7 +5856,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5766,7 +5886,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5787,7 +5907,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6615,7 +6735,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2">
         <v>489</v>
@@ -6626,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I6" s="43">
         <v>1</v>
@@ -6646,13 +6766,13 @@
         <v>11</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -6666,7 +6786,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I7" s="43">
         <v>1</v>
@@ -6686,13 +6806,13 @@
         <v>11</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>148</v>
@@ -6706,7 +6826,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I8" s="43">
         <v>1</v>
@@ -6726,13 +6846,13 @@
         <v>11</v>
       </c>
       <c r="P8" s="52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -6767,17 +6887,17 @@
         <v>11</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382268519</v>
+        <v>44342.629502315</v>
       </c>
       <c r="D10" s="2">
         <v>493</v>
@@ -6788,7 +6908,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I10" s="43">
         <v>1</v>
@@ -6808,13 +6928,13 @@
         <v>11</v>
       </c>
       <c r="P10" s="52" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -6855,7 +6975,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -6876,7 +6996,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -6906,7 +7026,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -6927,7 +7047,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7755,7 +7875,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -7782,7 +7902,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7812,7 +7932,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>149</v>
@@ -7842,7 +7962,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7873,11 +7993,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382268519</v>
+        <v>44342.629502315</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7904,7 +8024,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7935,7 +8055,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7956,7 +8076,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7986,7 +8106,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -8007,7 +8127,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -8835,7 +8955,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -8862,7 +8982,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -8892,7 +9012,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>150</v>
@@ -8922,7 +9042,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -8953,11 +9073,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382268519</v>
+        <v>44342.629502315</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8984,7 +9104,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9015,7 +9135,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9036,7 +9156,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9066,7 +9186,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9087,7 +9207,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>

--- a/public/cohort/fileExcel/xlsxUIT/CKV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/CKV PTA en onderwijsprogramma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>Periodecijfer kunstdossier; kunstdisciplines en dimensies</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>A, B, C en D</t>
@@ -2363,10 +2366,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -2431,7 +2434,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2461,10 +2464,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>203</v>
@@ -2542,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -2559,10 +2562,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -2627,7 +2630,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2658,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2726,11 +2729,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2815,7 +2818,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2904,7 +2907,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2927,7 +2930,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2966,7 +2969,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2996,7 +2999,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4622,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -4639,10 +4642,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -4707,7 +4710,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4720,7 +4723,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -4737,10 +4740,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -4805,7 +4808,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>146</v>
@@ -4818,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4835,10 +4838,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -4903,7 +4906,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4917,7 +4920,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -4934,10 +4937,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5002,11 +5005,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2">
         <v>487</v>
@@ -5016,7 +5019,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -5033,10 +5036,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -5101,7 +5104,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5115,7 +5118,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -5132,10 +5135,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -5200,7 +5203,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5223,7 +5226,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5262,7 +5265,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5292,7 +5295,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6993,7 +6996,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7081,7 +7084,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>147</v>
@@ -7169,7 +7172,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7258,11 +7261,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7347,7 +7350,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7436,7 +7439,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7459,7 +7462,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7498,7 +7501,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7528,7 +7531,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -9144,7 +9147,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2">
         <v>736</v>
@@ -9154,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -9171,10 +9174,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -9239,7 +9242,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9252,7 +9255,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -9269,10 +9272,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -9337,7 +9340,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>204</v>
@@ -9350,7 +9353,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -9367,10 +9370,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -9435,7 +9438,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9449,7 +9452,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -9466,10 +9469,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -9534,11 +9537,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9623,7 +9626,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9712,7 +9715,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9735,7 +9738,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9774,7 +9777,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11422,7 +11425,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2">
         <v>489</v>
@@ -11432,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11449,10 +11452,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11517,7 +11520,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11530,7 +11533,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -11547,10 +11550,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11615,7 +11618,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>148</v>
@@ -11628,7 +11631,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -11645,10 +11648,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11713,7 +11716,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11727,7 +11730,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -11744,10 +11747,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -11812,11 +11815,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2">
         <v>493</v>
@@ -11826,7 +11829,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -11843,10 +11846,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -11911,7 +11914,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -11925,7 +11928,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -11942,10 +11945,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -12010,7 +12013,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12033,7 +12036,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12072,7 +12075,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -12102,7 +12105,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -13720,7 +13723,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -13893,7 +13896,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>149</v>
@@ -13981,7 +13984,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14070,11 +14073,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14159,7 +14162,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14248,7 +14251,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14271,7 +14274,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14310,7 +14313,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14340,7 +14343,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -15958,7 +15961,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16043,7 +16046,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16131,7 +16134,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>150</v>
@@ -16219,7 +16222,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16308,11 +16311,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.54099537</v>
+        <v>44378.451226852</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16397,7 +16400,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16486,7 +16489,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16509,7 +16512,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16548,7 +16551,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16578,7 +16581,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
